--- a/teaching/traditional_assets/database/data/kenya/kenya_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_investments_asset_management.xlsx
@@ -591,121 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.425</v>
-      </c>
-      <c r="E2">
-        <v>0.225</v>
+        <v>-0.0788</v>
       </c>
       <c r="G2">
-        <v>0.3328060740272066</v>
+        <v>1.214477211796247</v>
       </c>
       <c r="H2">
-        <v>0.3328060740272066</v>
+        <v>1.214477211796247</v>
       </c>
       <c r="I2">
-        <v>0.4720025308446694</v>
+        <v>0.06899016979445934</v>
       </c>
       <c r="J2">
-        <v>0.4342423283770958</v>
+        <v>0.06899016979445934</v>
       </c>
       <c r="K2">
-        <v>88.2</v>
+        <v>-18</v>
       </c>
       <c r="L2">
-        <v>0.2790256248022778</v>
+        <v>-0.160857908847185</v>
       </c>
       <c r="M2">
-        <v>7.12</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03675787299948374</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.08072562358276644</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>7.12</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03675787299948374</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.08072562358276644</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>178.4</v>
+        <v>81.5</v>
       </c>
       <c r="V2">
-        <v>0.9210118740320083</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="W2">
-        <v>0.2257486562579985</v>
+        <v>-0.0377992440151197</v>
       </c>
       <c r="X2">
-        <v>0.1227601280808972</v>
+        <v>0.164420107173175</v>
       </c>
       <c r="Y2">
-        <v>0.1029885281771013</v>
+        <v>-0.2022193511882947</v>
       </c>
       <c r="Z2">
-        <v>0.5827802359882006</v>
+        <v>0.2185546875</v>
       </c>
       <c r="AA2">
-        <v>0.2530678466076696</v>
+        <v>0.015078125</v>
       </c>
       <c r="AB2">
-        <v>0.08557465902943075</v>
+        <v>0.08012104447491444</v>
       </c>
       <c r="AC2">
-        <v>0.1674931875782388</v>
+        <v>-0.06504291947491445</v>
       </c>
       <c r="AD2">
-        <v>214.2</v>
+        <v>252.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>214.2</v>
+        <v>252.6</v>
       </c>
       <c r="AG2">
-        <v>35.79999999999998</v>
+        <v>171.1</v>
       </c>
       <c r="AH2">
-        <v>0.5251287080166708</v>
+        <v>0.7208904109589042</v>
       </c>
       <c r="AI2">
-        <v>0.2811761617222368</v>
+        <v>0.3543771043771044</v>
       </c>
       <c r="AJ2">
-        <v>0.15599128540305</v>
+        <v>0.6362960208255858</v>
       </c>
       <c r="AK2">
-        <v>0.06136441549537193</v>
+        <v>0.2710280373831776</v>
       </c>
       <c r="AL2">
-        <v>31</v>
+        <v>16.7</v>
       </c>
       <c r="AM2">
-        <v>31</v>
+        <v>16.7</v>
       </c>
       <c r="AN2">
-        <v>1.315724815724816</v>
+        <v>20.53658536585366</v>
       </c>
       <c r="AO2">
-        <v>4.812903225806451</v>
+        <v>0.4622754491017964</v>
       </c>
       <c r="AP2">
-        <v>0.2199017199017198</v>
+        <v>13.91056910569105</v>
       </c>
       <c r="AQ2">
-        <v>4.812903225806451</v>
+        <v>0.4622754491017964</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.425</v>
-      </c>
-      <c r="E3">
-        <v>0.225</v>
+        <v>-0.0788</v>
       </c>
       <c r="G3">
-        <v>0.3328060740272066</v>
+        <v>1.214477211796247</v>
       </c>
       <c r="H3">
-        <v>0.3328060740272066</v>
+        <v>1.214477211796247</v>
       </c>
       <c r="I3">
-        <v>0.4720025308446694</v>
+        <v>0.06899016979445934</v>
       </c>
       <c r="J3">
-        <v>0.4342423283770958</v>
+        <v>0.06899016979445934</v>
       </c>
       <c r="K3">
-        <v>88.2</v>
+        <v>-18</v>
       </c>
       <c r="L3">
-        <v>0.2790256248022778</v>
+        <v>-0.160857908847185</v>
       </c>
       <c r="M3">
-        <v>7.12</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03675787299948374</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.08072562358276644</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.12</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03675787299948374</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.08072562358276644</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>178.4</v>
+        <v>81.5</v>
       </c>
       <c r="V3">
-        <v>0.9210118740320083</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="W3">
-        <v>0.2257486562579985</v>
+        <v>-0.0377992440151197</v>
       </c>
       <c r="X3">
-        <v>0.1227601280808972</v>
+        <v>0.164420107173175</v>
       </c>
       <c r="Y3">
-        <v>0.1029885281771013</v>
+        <v>-0.2022193511882947</v>
       </c>
       <c r="Z3">
-        <v>0.5827802359882006</v>
+        <v>0.2185546875</v>
       </c>
       <c r="AA3">
-        <v>0.2530678466076696</v>
+        <v>0.015078125</v>
       </c>
       <c r="AB3">
-        <v>0.08557465902943075</v>
+        <v>0.08012104447491444</v>
       </c>
       <c r="AC3">
-        <v>0.1674931875782388</v>
+        <v>-0.06504291947491445</v>
       </c>
       <c r="AD3">
-        <v>214.2</v>
+        <v>252.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>214.2</v>
+        <v>252.6</v>
       </c>
       <c r="AG3">
-        <v>35.79999999999998</v>
+        <v>171.1</v>
       </c>
       <c r="AH3">
-        <v>0.5251287080166708</v>
+        <v>0.7208904109589042</v>
       </c>
       <c r="AI3">
-        <v>0.2811761617222368</v>
+        <v>0.3543771043771044</v>
       </c>
       <c r="AJ3">
-        <v>0.15599128540305</v>
+        <v>0.6362960208255858</v>
       </c>
       <c r="AK3">
-        <v>0.06136441549537193</v>
+        <v>0.2710280373831776</v>
       </c>
       <c r="AL3">
-        <v>31</v>
+        <v>16.7</v>
       </c>
       <c r="AM3">
-        <v>31</v>
+        <v>16.7</v>
       </c>
       <c r="AN3">
-        <v>1.315724815724816</v>
+        <v>20.53658536585366</v>
       </c>
       <c r="AO3">
-        <v>4.812903225806451</v>
+        <v>0.4622754491017964</v>
       </c>
       <c r="AP3">
-        <v>0.2199017199017198</v>
+        <v>13.91056910569105</v>
       </c>
       <c r="AQ3">
-        <v>4.812903225806451</v>
+        <v>0.4622754491017964</v>
       </c>
     </row>
   </sheetData>
